--- a/biology/Botanique/Buplèvre_des_Pyrénées/Buplèvre_des_Pyrénées.xlsx
+++ b/biology/Botanique/Buplèvre_des_Pyrénées/Buplèvre_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Buplèvre_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum angulosum
 Bupleurum angulosum, le buplèvre des Pyrénées Écouter ou buplèvre anguleux, est une espèce de plantes vivaces de la famille des Apiaceae.
 Synonyme :
 Bupleurum pyrenaeum Gouan
-Cette espèce, endémique rare des Pyrénées et de la péninsule Ibérique[1], est une petite plante saxicole (10 à 50 cm), d'un vert grisâtre, à feuilles caulinaires étroitement lancéolées et à fleurs jaunâtres en ombellules caractérisées par des involucelles en coupe composées de bractées ovales-lancéolées, non soudées.
+Cette espèce, endémique rare des Pyrénées et de la péninsule Ibérique, est une petite plante saxicole (10 à 50 cm), d'un vert grisâtre, à feuilles caulinaires étroitement lancéolées et à fleurs jaunâtres en ombellules caractérisées par des involucelles en coupe composées de bractées ovales-lancéolées, non soudées.
 Dans les Alpes et dans les montagnes de Corse on rencontre l'espèce vicariante Bupleurum stellatum, qui s’en distingue par une tige peu feuillée et ses involucelles composés de bractées arrondies soudées.
 </t>
         </is>
